--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>mm</t>
   </si>
@@ -40,6 +40,81 @@
   </si>
   <si>
     <t>backplate thickness</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>copper gasket thickness</t>
+  </si>
+  <si>
+    <t>copper gasket inner diameter</t>
+  </si>
+  <si>
+    <t>copper gasket outer diameter</t>
+  </si>
+  <si>
+    <t>metal washer inner diameter</t>
+  </si>
+  <si>
+    <t>metal washer thickness</t>
+  </si>
+  <si>
+    <t>metal washer outer diameter</t>
+  </si>
+  <si>
+    <t>steel spacer thickness</t>
+  </si>
+  <si>
+    <t>steel spacer inner diameter</t>
+  </si>
+  <si>
+    <t>steel spacer outer diameter</t>
+  </si>
+  <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>F/m</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>condenser radius</t>
+  </si>
+  <si>
+    <t>condenser air-gap</t>
+  </si>
+  <si>
+    <t>condenser area</t>
+  </si>
+  <si>
+    <t>frame capacitor area</t>
+  </si>
+  <si>
+    <t>frame capacitor air-gap</t>
+  </si>
+  <si>
+    <t>condenser capacitance</t>
+  </si>
+  <si>
+    <t>fame capacitance</t>
+  </si>
+  <si>
+    <t>total capacitance</t>
+  </si>
+  <si>
+    <t>s-condenser air-gap</t>
+  </si>
+  <si>
+    <t>s-condenser area</t>
+  </si>
+  <si>
+    <t>s-condenser capacitance</t>
   </si>
 </sst>
 </file>
@@ -378,18 +453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -400,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -412,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -423,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -435,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -446,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -458,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -467,6 +545,244 @@
       </c>
       <c r="C7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <f>B23*B22/(B21*10^-3)</f>
+        <v>7.2201618357487929E-12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <f>B23*B25/(B24*10^-3)</f>
+        <v>2.4323589238845142E-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f>E9+E10</f>
+        <v>2.5045605422420021E-10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>23.95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <f>B23*B28/(B27*10^-3)</f>
+        <v>3.3887576552930892E-10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7.23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>37.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3.35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19.03</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>25.35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <f>B11</f>
+        <v>18.739999999999998</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <f>B10</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <f>PI()*((B20*10^-3)^2-(B14*10^-3)^2)</f>
+        <v>9.3906822556999686E-4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <f>1/(36*PI())*10^-9</f>
+        <v>8.8419412828830754E-12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f>PI()*((B12*10^-3)^2-(B11*10^-3)^2)</f>
+        <v>6.9873701588890841E-4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <f>PI()*((B17*10^-3)^2-(B14*10^-3)^2)</f>
+        <v>9.7347903238256231E-4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
